--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SS\MIDAS INDIA Dropbox\MIDAS\Technical Support\Development\Plugins\Seismic Site Class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\plugins\Site-Class-Determination-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8611B-DCE9-47DE-AE66-B466443BF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90EE5F-014C-41A2-AA83-F2F90E85A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23568" yWindow="-108" windowWidth="22620" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3960" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Class Report" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -563,11 +563,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -584,22 +621,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,17 +636,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,42 +968,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN26"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="3.28515625" style="2"/>
+    <col min="1" max="16384" width="3.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="11">
         <f>AL17</f>
         <v>393.5335</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -970,819 +1013,986 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7" t="str">
+      <c r="G4" s="15" t="str">
         <f>AM18</f>
         <v>C</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="15"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="6" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="6">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="11">
         <v>28</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="8" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8" t="s">
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8" t="s">
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AG9" s="12" t="s">
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AG9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-    </row>
-    <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8" t="s">
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+    </row>
+    <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="8" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8" t="s">
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8" t="s">
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-    </row>
-    <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AG11" s="8" t="s">
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AG11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8" t="s">
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-    </row>
-    <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AG12" s="8" t="s">
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AG12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8" t="s">
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-    </row>
-    <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AG13" s="16" t="s">
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AG13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16" t="s">
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-    </row>
-    <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AG14" s="8" t="s">
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+    </row>
+    <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AG14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8" t="s">
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-    </row>
-    <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AG15" s="8" t="s">
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AG15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8" t="s">
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-    </row>
-    <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-    </row>
-    <row r="17" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+    </row>
+    <row r="17" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
       <c r="AG17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL17" s="14">
+      <c r="AL17" s="10">
         <v>393.5335</v>
       </c>
-      <c r="AM17" s="14"/>
+      <c r="AM17" s="10"/>
       <c r="AN17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
+    <row r="18" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
       <c r="AG18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AH18" s="15" t="s">
+      <c r="AH18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="17" t="s">
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AN18" s="17"/>
-    </row>
-    <row r="19" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-    </row>
-    <row r="20" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-    </row>
-    <row r="21" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
+      <c r="AN18" s="12"/>
+    </row>
+    <row r="19" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+    </row>
+    <row r="20" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+    </row>
+    <row r="21" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-    </row>
-    <row r="23" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-    </row>
-    <row r="24" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-    </row>
-    <row r="25" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-    </row>
-    <row r="26" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
+    <row r="22" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+    </row>
+    <row r="23" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+    </row>
+    <row r="24" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+    </row>
+    <row r="25" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+    </row>
+    <row r="26" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+    </row>
+    <row r="27" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+    </row>
+    <row r="28" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+    </row>
+    <row r="29" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+    </row>
+    <row r="30" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+    </row>
+    <row r="31" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Y18:AA18"/>
+  <mergeCells count="197">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AB9:AE10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="T14:X14"/>
     <mergeCell ref="AG9:AN10"/>
     <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="H7:I7"/>
@@ -1807,60 +2017,93 @@
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AB9:AE10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
     <mergeCell ref="AB15:AE15"/>
     <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="T14:X14"/>
     <mergeCell ref="T15:X15"/>
     <mergeCell ref="T16:X16"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
